--- a/__question_pool_rate_800-1199/__review.xlsx
+++ b/__question_pool_rate_800-1199/__review.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\competitive programming\Competitive-programming\Competitive-programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\competitive programming\Competitive-programming\Competitive-programming\__question_pool_rate_800-1199\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568AA9B2-B807-4957-AAD8-EF94CF587CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC71589-103B-4F2B-8585-A7CB439973A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
   <si>
     <t>summary</t>
   </si>
@@ -289,6 +289,36 @@
   </si>
   <si>
     <t xml:space="preserve">عملیات DFS ساده روی درخت رو یادگرفتم . حالا به جای چاپ میومدیم و در یک آرایه دیگه تعداد برگ های متصل را مینوشتیم. </t>
+  </si>
+  <si>
+    <t>1842_B</t>
+  </si>
+  <si>
+    <t>مساله این بود که سه تا لیست داریم که به طوری پشته ای آنها را میتوانیم پیمایش کنیم. حالا سوال اینست که آیا با استفاده از این پشته ها میتوان یک عدد خاص را با عملیات or ایجاد کرد یا خیر.</t>
+  </si>
+  <si>
+    <t>ایده من DFs بود که کار نکرد و خیلی زمان زیاری را نیز میگرفت.</t>
+  </si>
+  <si>
+    <t>الگوریتم زیبایی داشت. گفت که عدد اصلی را با top پشته or میکرد تا زمانی که بیت های عدد اصلی خراب نشود و در نهایت عددی که ایجاد میشد را با عدد اصلی بررسی میکرد.</t>
+  </si>
+  <si>
+    <t>1841_B</t>
+  </si>
+  <si>
+    <t>مساله نگهداشتن یک لیست به صورت زیبا</t>
+  </si>
+  <si>
+    <t>کلی if قرار دادم ولی جواب نداد</t>
+  </si>
+  <si>
+    <t>؟</t>
+  </si>
+  <si>
+    <t>1840_B</t>
+  </si>
+  <si>
+    <t>1840_C</t>
   </si>
 </sst>
 </file>
@@ -788,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1247,32 +1277,68 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="2"/>
+    <row r="16" spans="1:18" ht="174" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="2"/>
+    <row r="17" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
       <c r="F18" s="8"/>
@@ -1281,9 +1347,13 @@
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5"/>
       <c r="F19" s="8"/>
